--- a/EEG_Dassl_Lightning/analyze_experiment/NeurIPS/data/experiment_3_avg.xlsx
+++ b/EEG_Dassl_Lightning/analyze_experiment/NeurIPS/data/experiment_3_avg.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.46</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="3">
@@ -513,62 +513,54 @@
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>adaptV1</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.335</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>temp</t>
-        </is>
-      </c>
+      <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>adapt</t>
+          <t>base</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.457</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>temp</t>
+        </is>
+      </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>adapt</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.326</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>adapt</t>
+          <t>adaptV1</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.394</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="7">
@@ -581,15 +573,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.315</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>temp</t>
+          <t>no</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -598,7 +594,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.405</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="9">
@@ -607,66 +603,54 @@
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
+          <t>adaptV1</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.306</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
           <t>base</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>0.411</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>dataset_B</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>chan</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>adapt</t>
-        </is>
-      </c>
       <c r="E10" t="n">
-        <v>0.532</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>temp</t>
+        </is>
+      </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>adapt</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.361</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>temp</t>
-        </is>
-      </c>
+      <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>adapt</t>
+          <t>adaptV1</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.544</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="13">
@@ -679,28 +663,32 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.491</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>dataset_B</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
+          <t>chan</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
           <t>adapt</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.545</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="15">
@@ -709,59 +697,175 @@
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>adaptV1</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.403</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>temp</t>
-        </is>
-      </c>
+      <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>adapt</t>
+          <t>base</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.544</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>temp</t>
+        </is>
+      </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
+          <t>adapt</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>adaptV1</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.593</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
           <t>base</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0.49</v>
+      <c r="E19" t="n">
+        <v>0.534</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>adapt</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>adaptV1</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.386</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>temp</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>adapt</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>adaptV1</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.507</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
